--- a/_Prototype/Document/Map/맵 오브젝트 테이블.xlsx
+++ b/_Prototype/Document/Map/맵 오브젝트 테이블.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022\git\EscapeIsland\_Prototype\Document\Excel 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\EscapeIsland\_Prototype\Document\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577FCB10-E224-4959-A2CE-3A6A2DAFD84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{BC92FC3E-2606-4045-830A-B706AE4F364B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="맵 오브젝트" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>게임 오브젝트 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,22 +287,6 @@
   </si>
   <si>
     <t>레드팀 로비 - 숲 문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲 앞 쓰레기통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴 앞 쓰레기통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래사장 앞 쓰레기통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밭 앞 쓰레기통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,13 +743,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C015C73-D139-4252-A00B-C058B361589D}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M9:M10"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -796,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -826,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -941,7 +923,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:19" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -971,7 +953,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:19" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -1001,7 +983,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:19" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -1031,7 +1013,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:19" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -1181,7 +1163,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="2:19" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -1211,12 +1193,12 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>51</v>
@@ -1241,7 +1223,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -1511,7 +1493,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>24</v>
       </c>
@@ -1541,7 +1523,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>25</v>
       </c>
@@ -1571,7 +1553,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>26</v>
       </c>
@@ -1811,7 +1793,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>34</v>
       </c>
@@ -1841,7 +1823,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>35</v>
       </c>
@@ -1901,7 +1883,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>37</v>
       </c>
@@ -1931,7 +1913,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>38</v>
       </c>
@@ -1961,7 +1943,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>39</v>
       </c>
@@ -1991,7 +1973,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>40</v>
       </c>
@@ -2021,7 +2003,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <v>41</v>
       </c>
@@ -2171,121 +2153,65 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3">
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2306,23 +2232,7 @@
       <c r="M53" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="D3:D52" xr:uid="{6C015C73-D139-4252-A00B-C058B361589D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="레드팀 배 내부"/>
-        <filter val="모래사장"/>
-        <filter val="물병 저장소"/>
-        <filter val="물병 창고"/>
-        <filter val="밭"/>
-        <filter val="배터리 저장소"/>
-        <filter val="배터리 창고"/>
-        <filter val="블루팀 로비"/>
-        <filter val="블루팀 배"/>
-        <filter val="블루팀 배 내부"/>
-        <filter val="숲"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D3:D52"/>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
